--- a/Experimento/GenIA-E2ETest.xlsx
+++ b/Experimento/GenIA-E2ETest.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvis\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elvis.souza.de.oliv1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{214083EC-2C5D-4458-8D6D-0E33838375EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08AE6F7-62DE-4F39-BC37-9029FC3D8AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>Test Case</t>
   </si>
@@ -126,51 +125,6 @@
     <t>Geral</t>
   </si>
   <si>
-    <t>E (Expected)</t>
-  </si>
-  <si>
-    <t>G (Generated)</t>
-  </si>
-  <si>
-    <t>C (Correct)</t>
-  </si>
-  <si>
-    <t>Completeness (%)</t>
-  </si>
-  <si>
-    <t>Correctness (%)</t>
-  </si>
-  <si>
-    <t>Absolute Correctness (%)</t>
-  </si>
-  <si>
-    <t>LOC Generated</t>
-  </si>
-  <si>
-    <t>Lines Modified</t>
-  </si>
-  <si>
-    <t>Lines Changed (%)</t>
-  </si>
-  <si>
-    <t>Execution Completeness (%)</t>
-  </si>
-  <si>
-    <t>Execution Correctness (%)</t>
-  </si>
-  <si>
-    <t>Absolute Execution Correctness (%)</t>
-  </si>
-  <si>
-    <t>GE (Generated Steps)</t>
-  </si>
-  <si>
-    <t>ES (Expected Steps)</t>
-  </si>
-  <si>
-    <t>CS (Correct Steps)</t>
-  </si>
-  <si>
     <t>Resultado (m):</t>
   </si>
   <si>
@@ -184,14 +138,84 @@
   </si>
   <si>
     <t>T.E. Total (s)</t>
+  </si>
+  <si>
+    <t>Expected Elements (E)</t>
+  </si>
+  <si>
+    <t>Expected Elements (E) (SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generated Elements (G) </t>
+  </si>
+  <si>
+    <t>Generated Elements (G) (SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct Elements (C) </t>
+  </si>
+  <si>
+    <t>Correct Elements (C) (SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element Coverage (%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision of Element Generation  (%) </t>
+  </si>
+  <si>
+    <t>Element Recall (%)</t>
+  </si>
+  <si>
+    <t>Lines of Code (LOC)</t>
+  </si>
+  <si>
+    <t>Lines of Code (LOC) (SD)</t>
+  </si>
+  <si>
+    <t>Modified Lines (ML)</t>
+  </si>
+  <si>
+    <t>Modified Lines (ML) (SD)</t>
+  </si>
+  <si>
+    <t>Manual Modification Rate (MR) (%) (SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Steps (ES) </t>
+  </si>
+  <si>
+    <t>Expected Steps (ES) (SD)</t>
+  </si>
+  <si>
+    <t>Generated Steps (GS)</t>
+  </si>
+  <si>
+    <t>Generated Steps (GS) (SD)</t>
+  </si>
+  <si>
+    <t>Correct Steps (CS)</t>
+  </si>
+  <si>
+    <t>Correct Steps (CS) (SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Coverage (%) </t>
+  </si>
+  <si>
+    <t>Precision of Execution (%)</t>
+  </si>
+  <si>
+    <t>Execution Recall (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -287,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -398,13 +422,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -473,9 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -497,11 +528,34 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -976,7 +1030,7 @@
     <tableColumn id="3" xr3:uid="{5D3C670B-8E43-4761-8B6C-81982FAC1EE8}" name="E (Esperados)" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{8A58E599-D1B6-4AED-9A4E-6FFF7D7AAA9B}" name="G (Gerados)" dataDxfId="13"/>
     <tableColumn id="5" xr3:uid="{5D7E3A8A-6223-4B70-8EEA-E3EF93619BBB}" name="C (Corretos)" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{C112549B-4A6C-4D92-A57B-72F162250505}" name="Completude (%)" dataDxfId="11" dataCellStyle="Vírgula">
+    <tableColumn id="6" xr3:uid="{C112549B-4A6C-4D92-A57B-72F162250505}" name="Completude (%)" dataDxfId="11">
       <calculatedColumnFormula>D2/C2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{53A130C8-3D1E-4785-9064-71146A26CEA9}" name="Corretude (%)" dataDxfId="10">
@@ -1294,51 +1348,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH37"/>
+  <dimension ref="A1:BJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AH50" sqref="AH50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" customWidth="1"/>
-    <col min="14" max="14" width="20.88671875" customWidth="1"/>
-    <col min="15" max="15" width="28.5546875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="30.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="35.21875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="2.5546875" customWidth="1"/>
-    <col min="19" max="19" width="27.109375" customWidth="1"/>
-    <col min="20" max="20" width="30.109375" customWidth="1"/>
-    <col min="21" max="21" width="59.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.21875" customWidth="1"/>
-    <col min="23" max="23" width="22.44140625" customWidth="1"/>
-    <col min="24" max="24" width="25.44140625" customWidth="1"/>
-    <col min="25" max="25" width="29.109375" customWidth="1"/>
-    <col min="26" max="26" width="23.6640625" customWidth="1"/>
-    <col min="27" max="27" width="21.5546875" customWidth="1"/>
-    <col min="28" max="28" width="25.33203125" customWidth="1"/>
-    <col min="29" max="29" width="25.6640625" customWidth="1"/>
-    <col min="30" max="30" width="30.109375" customWidth="1"/>
-    <col min="31" max="31" width="27.5546875" customWidth="1"/>
-    <col min="32" max="32" width="35.5546875" customWidth="1"/>
-    <col min="33" max="33" width="31.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+    <col min="13" max="13" width="22.1796875" customWidth="1"/>
+    <col min="14" max="14" width="20.90625" customWidth="1"/>
+    <col min="15" max="15" width="28.54296875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="30.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="35.1796875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="2.54296875" customWidth="1"/>
+    <col min="19" max="19" width="27.08984375" customWidth="1"/>
+    <col min="20" max="20" width="30.08984375" customWidth="1"/>
+    <col min="21" max="21" width="59.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.26953125" customWidth="1"/>
+    <col min="23" max="23" width="31.1796875" customWidth="1"/>
+    <col min="24" max="24" width="25.453125" customWidth="1"/>
+    <col min="25" max="25" width="29.08984375" customWidth="1"/>
+    <col min="26" max="26" width="23.6328125" customWidth="1"/>
+    <col min="27" max="27" width="34.90625" customWidth="1"/>
+    <col min="28" max="28" width="19.90625" customWidth="1"/>
+    <col min="29" max="29" width="19.26953125" customWidth="1"/>
+    <col min="30" max="30" width="23.453125" customWidth="1"/>
+    <col min="31" max="31" width="19.26953125" customWidth="1"/>
+    <col min="32" max="33" width="35.54296875" customWidth="1"/>
     <col min="34" max="34" width="43" customWidth="1"/>
+    <col min="35" max="35" width="23.26953125" customWidth="1"/>
+    <col min="36" max="36" width="25.54296875" customWidth="1"/>
+    <col min="37" max="37" width="28.453125" customWidth="1"/>
+    <col min="38" max="38" width="20" customWidth="1"/>
+    <col min="39" max="39" width="23.81640625" customWidth="1"/>
+    <col min="40" max="40" width="26.6328125" customWidth="1"/>
+    <col min="41" max="41" width="25.54296875" customWidth="1"/>
+    <col min="42" max="42" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1390,56 +1451,8 @@
       <c r="Q1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF1" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
@@ -1498,71 +1511,8 @@
         <f>N2/L2</f>
         <v>0.7</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="11">
-        <f>SUMIF(A1:A50,S2,C1:C50)</f>
-        <v>14</v>
-      </c>
-      <c r="U2" s="11">
-        <f>SUMIF(A1:A50, S2, D1:D50)</f>
-        <v>14</v>
-      </c>
-      <c r="V2" s="11">
-        <f>SUMIF(A1:A50,S2,E1:E50)</f>
-        <v>14</v>
-      </c>
-      <c r="W2" s="12">
-        <f t="shared" ref="W2:X13" si="2">U2/T2</f>
-        <v>1</v>
-      </c>
-      <c r="X2" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y2" s="13">
-        <f t="shared" ref="Y2:Y12" si="3">V2/T2</f>
-        <v>1</v>
-      </c>
-      <c r="Z2" s="11">
-        <f>SUMIF(A1:A50,S2,I1:I50)</f>
-        <v>64</v>
-      </c>
-      <c r="AA2" s="11">
-        <f>SUMIF(A1:A50,S2,J1:J50)</f>
-        <v>3</v>
-      </c>
-      <c r="AB2" s="13">
-        <f t="shared" ref="AB2:AB13" si="4">AA2/Z2</f>
-        <v>4.6875E-2</v>
-      </c>
-      <c r="AC2" s="11">
-        <f>SUMIF(A1:A50,S2,L1:L50)</f>
-        <v>32</v>
-      </c>
-      <c r="AD2" s="11">
-        <f>SUMIF(A1:A50,S2,M1:M50)</f>
-        <v>32</v>
-      </c>
-      <c r="AE2" s="11">
-        <f>SUMIF(A1:A50,S2,N1:N50)</f>
-        <v>29</v>
-      </c>
-      <c r="AF2" s="13">
-        <f t="shared" ref="AF2:AG6" si="5">AD2/AC2</f>
-        <v>1</v>
-      </c>
-      <c r="AG2" s="13">
-        <f t="shared" si="5"/>
-        <v>0.90625</v>
-      </c>
-      <c r="AH2" s="13">
-        <f t="shared" ref="AH2:AH12" si="6">AE2/AC2</f>
-        <v>0.90625</v>
-      </c>
     </row>
-    <row r="3" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
         <v>17</v>
       </c>
@@ -1587,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="23">
-        <f t="shared" ref="H3:H37" si="7">E3/C3</f>
+        <f t="shared" ref="H3:H37" si="2">E3/C3</f>
         <v>1</v>
       </c>
       <c r="I3" s="21">
@@ -1597,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="23">
-        <f t="shared" ref="K3:K37" si="8">J3/I3</f>
+        <f t="shared" ref="K3:K37" si="3">J3/I3</f>
         <v>0</v>
       </c>
       <c r="L3" s="21">
@@ -1618,74 +1568,11 @@
         <v>1</v>
       </c>
       <c r="Q3" s="23">
-        <f t="shared" ref="Q3:Q37" si="9">N3/L3</f>
-        <v>1</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="T3" s="8">
-        <f>SUMIF(A2:A51,S3,C2:C51)</f>
-        <v>23</v>
-      </c>
-      <c r="U3" s="8">
-        <f>SUMIF(A2:A51, S3, D2:D51)</f>
-        <v>23</v>
-      </c>
-      <c r="V3" s="8">
-        <f>SUMIF(A2:A51,S3,E2:E51)</f>
-        <v>21</v>
-      </c>
-      <c r="W3" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X3" s="9">
-        <f t="shared" si="2"/>
-        <v>0.91304347826086951</v>
-      </c>
-      <c r="Y3" s="9">
-        <f t="shared" si="3"/>
-        <v>0.91304347826086951</v>
-      </c>
-      <c r="Z3" s="8">
-        <f>SUMIF(A2:A51,S3,I2:I51)</f>
-        <v>77</v>
-      </c>
-      <c r="AA3" s="8">
-        <f ca="1">SUMIF(A2:A51,S3,J3:J51)</f>
-        <v>5</v>
-      </c>
-      <c r="AB3" s="9">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.4935064935064929E-2</v>
-      </c>
-      <c r="AC3" s="8">
-        <f ca="1">SUMIF(A2:A51,S3,L3:L51)</f>
-        <v>32</v>
-      </c>
-      <c r="AD3" s="8">
-        <f>SUMIF(A2:A51,S3,M2:M51)</f>
-        <v>41</v>
-      </c>
-      <c r="AE3" s="8">
-        <f>SUMIF(A2:A51,S3,N2:N51)</f>
-        <v>27</v>
-      </c>
-      <c r="AF3" s="9">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.28125</v>
-      </c>
-      <c r="AG3" s="9">
-        <f t="shared" si="5"/>
-        <v>0.65853658536585369</v>
-      </c>
-      <c r="AH3" s="9">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.84375</v>
+        <f t="shared" ref="Q3:Q37" si="4">N3/L3</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:62" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I4" s="21">
@@ -1720,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L4" s="21">
@@ -1741,74 +1628,55 @@
         <v>1</v>
       </c>
       <c r="Q4" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="8">
-        <f>SUMIF(A3:A52,S4,C3:C52)</f>
-        <v>17</v>
-      </c>
-      <c r="U4" s="8">
-        <f>SUMIF(A3:A52, S4, D3:D52)</f>
-        <v>17</v>
-      </c>
-      <c r="V4" s="8">
-        <f>SUMIF(A3:A52,S4,E3:E52)</f>
-        <v>14</v>
-      </c>
-      <c r="W4" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X4" s="9">
-        <f t="shared" si="2"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="Y4" s="9">
-        <f t="shared" si="3"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="Z4" s="8">
-        <f>SUMIF(A3:A52,S4,I3:I52)</f>
-        <v>67</v>
-      </c>
-      <c r="AA4" s="8">
-        <f>SUMIF(A3:A52,S4,J3:J52)</f>
-        <v>4</v>
-      </c>
-      <c r="AB4" s="9">
         <f t="shared" si="4"/>
-        <v>5.9701492537313432E-2</v>
-      </c>
-      <c r="AC4" s="8">
-        <f>SUMIF(A3:A52,S4,L3:L52)</f>
-        <v>34</v>
-      </c>
-      <c r="AD4" s="8">
-        <f>SUMIF(A3:A52,S4,M3:M52)</f>
-        <v>34</v>
-      </c>
-      <c r="AE4" s="8">
-        <f>SUMIF(A3:A52,S4,N3:N52)</f>
-        <v>31</v>
-      </c>
-      <c r="AF4" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG4" s="9">
-        <f t="shared" si="5"/>
-        <v>0.91176470588235292</v>
-      </c>
-      <c r="AH4" s="9">
-        <f t="shared" si="6"/>
-        <v>0.91176470588235292</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+      <c r="AO4"/>
+      <c r="AP4"/>
+      <c r="AQ4"/>
+      <c r="AR4"/>
+      <c r="AS4"/>
+      <c r="AT4"/>
+      <c r="AU4"/>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4"/>
+      <c r="AY4"/>
+      <c r="AZ4"/>
+      <c r="BA4"/>
+      <c r="BB4"/>
+      <c r="BC4"/>
+      <c r="BD4"/>
+      <c r="BE4"/>
+      <c r="BF4"/>
+      <c r="BG4"/>
+      <c r="BH4"/>
+      <c r="BI4"/>
+      <c r="BJ4"/>
     </row>
-    <row r="5" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
@@ -1833,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I5" s="21">
@@ -1843,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.29729729729729731</v>
       </c>
       <c r="L5" s="21">
@@ -1864,74 +1732,11 @@
         <v>0.35294117647058826</v>
       </c>
       <c r="Q5" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.35294117647058826</v>
       </c>
-      <c r="S5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="8">
-        <f>SUMIF(A4:A53,S5,C4:C53)</f>
-        <v>15</v>
-      </c>
-      <c r="U5" s="8">
-        <f>SUMIF(A4:A53, S5, D4:D53)</f>
-        <v>15</v>
-      </c>
-      <c r="V5" s="8">
-        <f>SUMIF(A4:A53,S5,E4:E53)</f>
-        <v>15</v>
-      </c>
-      <c r="W5" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z5" s="8">
-        <f>SUMIF(A4:A53,S5,I4:I53)</f>
-        <v>64</v>
-      </c>
-      <c r="AA5" s="8">
-        <f>SUMIF(A4:A53,S5,J4:J53)</f>
-        <v>4</v>
-      </c>
-      <c r="AB5" s="9">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AC5" s="8">
-        <f>SUMIF(A4:A53,S5,L4:L53)</f>
-        <v>29</v>
-      </c>
-      <c r="AD5" s="8">
-        <f>SUMIF(A4:A53,S5,M4:M53)</f>
-        <v>31</v>
-      </c>
-      <c r="AE5" s="8">
-        <f>SUMIF(A4:A53,S5,N4:N53)</f>
-        <v>27</v>
-      </c>
-      <c r="AF5" s="9">
-        <f t="shared" si="5"/>
-        <v>1.0689655172413792</v>
-      </c>
-      <c r="AG5" s="9">
-        <f t="shared" si="5"/>
-        <v>0.87096774193548387</v>
-      </c>
-      <c r="AH5" s="9">
-        <f t="shared" si="6"/>
-        <v>0.93103448275862066</v>
-      </c>
     </row>
-    <row r="6" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>18</v>
       </c>
@@ -1956,7 +1761,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="H6" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I6" s="21">
@@ -1966,7 +1771,7 @@
         <v>3</v>
       </c>
       <c r="K6" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="L6" s="21">
@@ -1987,74 +1792,11 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="Q6" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6" s="8">
-        <f>SUMIF(A5:A54,S6,C5:C54)</f>
-        <v>94</v>
-      </c>
-      <c r="U6" s="8">
-        <f>SUMIF(A5:A54, S6, D5:D54)</f>
-        <v>94</v>
-      </c>
-      <c r="V6" s="8">
-        <f>SUMIF(A5:A54,S6,E5:E54)</f>
-        <v>11</v>
-      </c>
-      <c r="W6" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="9">
-        <f t="shared" si="2"/>
-        <v>0.11702127659574468</v>
-      </c>
-      <c r="Y6" s="9">
-        <f t="shared" si="3"/>
-        <v>0.11702127659574468</v>
-      </c>
-      <c r="Z6" s="8">
-        <f>SUMIF(A5:A54,S6,I5:I54)</f>
-        <v>171</v>
-      </c>
-      <c r="AA6" s="8">
-        <f>SUMIF(A5:A54,S6,J5:J54)</f>
-        <v>83</v>
-      </c>
-      <c r="AB6" s="9">
         <f t="shared" si="4"/>
-        <v>0.4853801169590643</v>
-      </c>
-      <c r="AC6" s="8">
-        <f>SUMIF(A5:A54,S6,L5:L54)</f>
-        <v>108</v>
-      </c>
-      <c r="AD6" s="8">
-        <f>SUMIF(A5:A54,S6,M5:M54)</f>
-        <v>108</v>
-      </c>
-      <c r="AE6" s="8">
-        <f>SUMIF(A5:A54,S6,N5:N54)</f>
-        <v>26</v>
-      </c>
-      <c r="AF6" s="9">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AG6" s="9">
-        <f t="shared" si="5"/>
-        <v>0.24074074074074073</v>
-      </c>
-      <c r="AH6" s="9">
-        <f t="shared" si="6"/>
-        <v>0.24074074074074073</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:62" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
         <v>18</v>
       </c>
@@ -2079,7 +1821,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="H7" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="I7" s="21">
@@ -2089,7 +1831,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="L7" s="21">
@@ -2106,78 +1848,59 @@
         <v>1</v>
       </c>
       <c r="P7" s="23">
-        <f t="shared" ref="P7:P24" si="10">N7/M7</f>
+        <f t="shared" ref="P7:P24" si="5">N7/M7</f>
         <v>0.92307692307692313</v>
       </c>
       <c r="Q7" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.92307692307692313</v>
       </c>
-      <c r="S7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="8">
-        <f>SUMIF(A6:A55,S7,C6:C55)</f>
-        <v>39</v>
-      </c>
-      <c r="U7" s="8">
-        <f>SUMIF(A6:A55, S7, D6:D55)</f>
-        <v>39</v>
-      </c>
-      <c r="V7" s="8">
-        <f>SUMIF(A6:A55,S7,E6:E55)</f>
-        <v>34</v>
-      </c>
-      <c r="W7" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="9">
-        <f t="shared" ref="X7:X13" si="11">V7/U7</f>
-        <v>0.87179487179487181</v>
-      </c>
-      <c r="Y7" s="9">
-        <f t="shared" si="3"/>
-        <v>0.87179487179487181</v>
-      </c>
-      <c r="Z7" s="8">
-        <f>SUMIF(A6:A55,S7,I6:I55)</f>
-        <v>95</v>
-      </c>
-      <c r="AA7" s="8">
-        <f>SUMIF(A6:A55,S7,J6:J55)</f>
-        <v>7</v>
-      </c>
-      <c r="AB7" s="9">
-        <f t="shared" si="4"/>
-        <v>7.3684210526315783E-2</v>
-      </c>
-      <c r="AC7" s="8">
-        <f>SUMIF(A6:A55,S7,L6:L55)</f>
-        <v>56</v>
-      </c>
-      <c r="AD7" s="8">
-        <f>SUMIF(A6:A55,S7,M6:M55)</f>
-        <v>58</v>
-      </c>
-      <c r="AE7" s="8">
-        <f>SUMIF(A6:A55,S7,N6:N55)</f>
-        <v>51</v>
-      </c>
-      <c r="AF7" s="9">
-        <f t="shared" ref="AF7:AF13" si="12">AD7/AC7</f>
-        <v>1.0357142857142858</v>
-      </c>
-      <c r="AG7" s="9">
-        <f t="shared" ref="AG7:AG12" si="13">AE7/AD7</f>
-        <v>0.87931034482758619</v>
-      </c>
-      <c r="AH7" s="9">
-        <f t="shared" si="6"/>
-        <v>0.9107142857142857</v>
-      </c>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+      <c r="AO7"/>
+      <c r="AP7"/>
+      <c r="AQ7"/>
+      <c r="AR7"/>
+      <c r="AS7"/>
+      <c r="AT7"/>
+      <c r="AU7"/>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7"/>
+      <c r="AY7"/>
+      <c r="AZ7"/>
+      <c r="BA7"/>
+      <c r="BB7"/>
+      <c r="BC7"/>
+      <c r="BD7"/>
+      <c r="BE7"/>
+      <c r="BF7"/>
+      <c r="BG7"/>
+      <c r="BH7"/>
+      <c r="BI7"/>
+      <c r="BJ7"/>
     </row>
-    <row r="8" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
         <v>28</v>
       </c>
@@ -2202,7 +1925,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="H8" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I8" s="21">
@@ -2212,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="L8" s="21">
@@ -2229,78 +1952,15 @@
         <v>1</v>
       </c>
       <c r="P8" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="Q8" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="S8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="8">
-        <f>SUMIF(A7:A56,S8,C7:C56)</f>
-        <v>6</v>
-      </c>
-      <c r="U8" s="8">
-        <f>SUMIF(A7:A56, S8, D7:D56)</f>
-        <v>6</v>
-      </c>
-      <c r="V8" s="8">
-        <f>SUMIF(A7:A56,S8,E7:E56)</f>
-        <v>3</v>
-      </c>
-      <c r="W8" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X8" s="9">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="Y8" s="9">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="Z8" s="8">
-        <f>SUMIF(A7:A56,S8,I7:I56)</f>
-        <v>49</v>
-      </c>
-      <c r="AA8" s="8">
-        <f>SUMIF(A7:A56,S8,J7:J56)</f>
-        <v>3</v>
-      </c>
-      <c r="AB8" s="9">
-        <f t="shared" si="4"/>
-        <v>6.1224489795918366E-2</v>
-      </c>
-      <c r="AC8" s="8">
-        <f>SUMIF(A7:A56,S8,L7:L56)</f>
-        <v>21</v>
-      </c>
-      <c r="AD8" s="8">
-        <f>SUMIF(A7:A56,S8,M7:M56)</f>
-        <v>21</v>
-      </c>
-      <c r="AE8" s="8">
-        <f>SUMIF(A7:A56,S8,N7:N56)</f>
-        <v>21</v>
-      </c>
-      <c r="AF8" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AG8" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AH8" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
         <v>28</v>
       </c>
@@ -2325,7 +1985,7 @@
         <v>0.8</v>
       </c>
       <c r="H9" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="I9" s="21">
@@ -2335,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="L9" s="21">
@@ -2352,78 +2012,15 @@
         <v>1</v>
       </c>
       <c r="P9" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="Q9" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="S9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="8">
-        <f>SUMIF(A8:A57,S9,C8:C57)</f>
-        <v>9</v>
-      </c>
-      <c r="U9" s="8">
-        <f>SUMIF(A8:A57, S9, D8:D57)</f>
-        <v>9</v>
-      </c>
-      <c r="V9" s="8">
-        <f>SUMIF(A8:A57,S9,E8:E57)</f>
-        <v>9</v>
-      </c>
-      <c r="W9" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X9" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y9" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z9" s="8">
-        <f>SUMIF(A8:A57,S9,I8:I57)</f>
-        <v>48</v>
-      </c>
-      <c r="AA9" s="8">
-        <f>SUMIF(A8:A57,S9,J8:J57)</f>
-        <v>1</v>
-      </c>
-      <c r="AB9" s="9">
-        <f t="shared" si="4"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="AC9" s="8">
-        <f>SUMIF(A8:A57,S9,L8:L57)</f>
-        <v>21</v>
-      </c>
-      <c r="AD9" s="8">
-        <f>SUMIF(A8:A57,S9,M8:M57)</f>
-        <v>21</v>
-      </c>
-      <c r="AE9" s="8">
-        <f>SUMIF(A8:A57,S9,N8:N57)</f>
-        <v>20</v>
-      </c>
-      <c r="AF9" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AG9" s="9">
-        <f t="shared" si="13"/>
-        <v>0.95238095238095233</v>
-      </c>
-      <c r="AH9" s="9">
-        <f t="shared" si="6"/>
-        <v>0.95238095238095233</v>
-      </c>
     </row>
-    <row r="10" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>28</v>
       </c>
@@ -2448,7 +2045,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="H10" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I10" s="21">
@@ -2458,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="L10" s="21">
@@ -2475,78 +2072,15 @@
         <v>1</v>
       </c>
       <c r="P10" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="Q10" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="S10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="8">
-        <f>SUMIF(A9:A58,S10,C9:C58)</f>
-        <v>17</v>
-      </c>
-      <c r="U10" s="8">
-        <f>SUMIF(A9:A58, S10, D9:D58)</f>
-        <v>17</v>
-      </c>
-      <c r="V10" s="8">
-        <f>SUMIF(A9:A58,S10,E9:E58)</f>
-        <v>14</v>
-      </c>
-      <c r="W10" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X10" s="9">
-        <f t="shared" si="11"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="Y10" s="9">
-        <f t="shared" si="3"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="Z10" s="8">
-        <f>SUMIF(A9:A58,S10,I9:I58)</f>
-        <v>56</v>
-      </c>
-      <c r="AA10" s="8">
-        <f>SUMIF(A9:A58,S10,J9:J58)</f>
-        <v>3</v>
-      </c>
-      <c r="AB10" s="9">
-        <f t="shared" si="4"/>
-        <v>5.3571428571428568E-2</v>
-      </c>
-      <c r="AC10" s="8">
-        <f>SUMIF(A9:A58,S10,L9:L58)</f>
-        <v>26</v>
-      </c>
-      <c r="AD10" s="8">
-        <f>SUMIF(A9:A58,S10,M9:M58)</f>
-        <v>26</v>
-      </c>
-      <c r="AE10" s="8">
-        <f>SUMIF(A9:A58,S10,N9:N58)</f>
-        <v>23</v>
-      </c>
-      <c r="AF10" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AG10" s="9">
-        <f t="shared" si="13"/>
-        <v>0.88461538461538458</v>
-      </c>
-      <c r="AH10" s="9">
-        <f t="shared" si="6"/>
-        <v>0.88461538461538458</v>
-      </c>
     </row>
-    <row r="11" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A11" s="21" t="s">
         <v>27</v>
       </c>
@@ -2571,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I11" s="21">
@@ -2581,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="K11" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="L11" s="21">
@@ -2598,78 +2132,15 @@
         <v>1.2222222222222223</v>
       </c>
       <c r="P11" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="Q11" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="S11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="8">
-        <f>SUMIF(A10:A59,S11,C10:C59)</f>
-        <v>10</v>
-      </c>
-      <c r="U11" s="8">
-        <f>SUMIF(A10:A59, S11, D10:D59)</f>
-        <v>10</v>
-      </c>
-      <c r="V11" s="8">
-        <f>SUMIF(A10:A59,S11,E10:E59)</f>
-        <v>10</v>
-      </c>
-      <c r="W11" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X11" s="9">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y11" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z11" s="8">
-        <f>SUMIF(A10:A59,S11,I10:I59)</f>
-        <v>42</v>
-      </c>
-      <c r="AA11" s="8">
-        <f>SUMIF(A10:A59,S11,J10:J59)</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="8">
-        <f>SUMIF(A10:A59,S11,L10:L59)</f>
-        <v>19</v>
-      </c>
-      <c r="AD11" s="8">
-        <f>SUMIF(A10:A59,S11,M10:M59)</f>
-        <v>19</v>
-      </c>
-      <c r="AE11" s="8">
-        <f>SUMIF(A10:A59,S11,N10:N59)</f>
-        <v>19</v>
-      </c>
-      <c r="AF11" s="9">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AG11" s="9">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AH11" s="9">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>27</v>
       </c>
@@ -2694,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="21">
@@ -2704,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L12" s="21">
@@ -2721,78 +2192,15 @@
         <v>1</v>
       </c>
       <c r="P12" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q12" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="T12" s="8">
-        <f>SUMIF(A11:A60,S12,C11:C60)</f>
-        <v>35</v>
-      </c>
-      <c r="U12" s="8">
-        <f>SUMIF(A11:A60, S12, D11:D60)</f>
-        <v>35</v>
-      </c>
-      <c r="V12" s="8">
-        <f>SUMIF(A11:A60,S12,E11:E60)</f>
-        <v>18</v>
-      </c>
-      <c r="W12" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X12" s="9">
-        <f t="shared" si="11"/>
-        <v>0.51428571428571423</v>
-      </c>
-      <c r="Y12" s="9">
-        <f t="shared" si="3"/>
-        <v>0.51428571428571423</v>
-      </c>
-      <c r="Z12" s="8">
-        <f>SUMIF(A11:A60,S12,I11:I60)</f>
-        <v>95</v>
-      </c>
-      <c r="AA12" s="8">
-        <f>SUMIF(A11:A60,S12,J11:J60)</f>
-        <v>9</v>
-      </c>
-      <c r="AB12" s="9">
         <f t="shared" si="4"/>
-        <v>9.4736842105263161E-2</v>
-      </c>
-      <c r="AC12" s="8">
-        <f>SUMIF(A11:A60,S12,L11:L60)</f>
-        <v>47</v>
-      </c>
-      <c r="AD12" s="8">
-        <f>SUMIF(A11:A60,S12,M11:M60)</f>
-        <v>49</v>
-      </c>
-      <c r="AE12" s="8">
-        <f>SUMIF(A11:A60,S12,N11:N60)</f>
-        <v>42</v>
-      </c>
-      <c r="AF12" s="9">
-        <f t="shared" si="12"/>
-        <v>1.0425531914893618</v>
-      </c>
-      <c r="AG12" s="9">
-        <f t="shared" si="13"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="AH12" s="9">
-        <f t="shared" si="6"/>
-        <v>0.8936170212765957</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>27</v>
       </c>
@@ -2817,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I13" s="21">
@@ -2827,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="L13" s="21">
@@ -2844,78 +2252,15 @@
         <v>1</v>
       </c>
       <c r="P13" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="Q13" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="S13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="T13" s="16">
-        <f>SUMIF(A12:A61,S13,C12:C61)</f>
-        <v>34</v>
-      </c>
-      <c r="U13" s="16">
-        <f>SUMIF(A12:A61, S13, D12:D61)</f>
-        <v>34</v>
-      </c>
-      <c r="V13" s="16">
-        <f>SUMIF(A12:A61,S13,E12:E61)</f>
-        <v>24</v>
-      </c>
-      <c r="W13" s="12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="X13" s="17">
-        <f t="shared" si="11"/>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="Y13" s="17">
-        <f>V13/T13</f>
-        <v>0.70588235294117652</v>
-      </c>
-      <c r="Z13" s="16">
-        <f>SUMIF(A12:A61,S13,I12:I61)</f>
-        <v>77</v>
-      </c>
-      <c r="AA13" s="16">
-        <f>SUMIF(A12:A61,S13,J12:J61)</f>
-        <v>12</v>
-      </c>
-      <c r="AB13" s="17">
-        <f t="shared" si="4"/>
-        <v>0.15584415584415584</v>
-      </c>
-      <c r="AC13" s="16">
-        <f>SUMIF(A12:A61,S13,L12:L61)</f>
-        <v>45</v>
-      </c>
-      <c r="AD13" s="16">
-        <f>SUMIF(A12:A61,S13,M12:M61)</f>
-        <v>45</v>
-      </c>
-      <c r="AE13" s="16">
-        <f>SUMIF(A12:A61,S13,N12:N61)</f>
-        <v>33</v>
-      </c>
-      <c r="AF13" s="17">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AG13" s="17">
-        <f>AE13/AD13</f>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="AH13" s="17">
-        <f>AE13/AC13</f>
-        <v>0.73333333333333328</v>
-      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
         <v>26</v>
       </c>
@@ -2940,7 +2285,7 @@
         <v>0.19354838709677419</v>
       </c>
       <c r="H14" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.19354838709677419</v>
       </c>
       <c r="I14" s="21">
@@ -2950,7 +2295,7 @@
         <v>25</v>
       </c>
       <c r="K14" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.43103448275862066</v>
       </c>
       <c r="L14" s="21">
@@ -2967,15 +2312,15 @@
         <v>1</v>
       </c>
       <c r="P14" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="Q14" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.30555555555555558</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3000,7 +2345,7 @@
         <v>0.12121212121212122</v>
       </c>
       <c r="H15" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.12121212121212122</v>
       </c>
       <c r="I15" s="21">
@@ -3010,7 +2355,7 @@
         <v>29</v>
       </c>
       <c r="K15" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="L15" s="21">
@@ -3027,78 +2372,15 @@
         <v>1</v>
       </c>
       <c r="P15" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.24324324324324326</v>
       </c>
       <c r="Q15" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.24324324324324326</v>
       </c>
-      <c r="S15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="8">
-        <f>SUM(T2:T13)</f>
-        <v>313</v>
-      </c>
-      <c r="U15" s="8">
-        <f>SUM(U2:U13)</f>
-        <v>313</v>
-      </c>
-      <c r="V15" s="8">
-        <f>SUM(V2:V13)</f>
-        <v>187</v>
-      </c>
-      <c r="W15" s="26">
-        <f>U15/T15</f>
-        <v>1</v>
-      </c>
-      <c r="X15" s="26">
-        <f>V15/U15</f>
-        <v>0.597444089456869</v>
-      </c>
-      <c r="Y15" s="26">
-        <f>V15/T15</f>
-        <v>0.597444089456869</v>
-      </c>
-      <c r="Z15" s="25">
-        <f>SUM(Z2:Z13)</f>
-        <v>905</v>
-      </c>
-      <c r="AA15" s="25">
-        <f ca="1">SUM(AA2:AA13)</f>
-        <v>134</v>
-      </c>
-      <c r="AB15" s="26">
-        <f ca="1">AA15/Z15</f>
-        <v>0.14806629834254142</v>
-      </c>
-      <c r="AC15" s="25">
-        <f ca="1">SUM(AC2:AC13)</f>
-        <v>470</v>
-      </c>
-      <c r="AD15" s="25">
-        <f>SUM(AD2:AD13)</f>
-        <v>485</v>
-      </c>
-      <c r="AE15" s="25">
-        <f>SUM(AE2:AE13)</f>
-        <v>349</v>
-      </c>
-      <c r="AF15" s="26">
-        <f ca="1">AD15/AC15</f>
-        <v>1.0319148936170213</v>
-      </c>
-      <c r="AG15" s="26">
-        <f>AE15/AD15</f>
-        <v>0.71958762886597938</v>
-      </c>
-      <c r="AH15" s="26">
-        <f ca="1">AE15/AC15</f>
-        <v>0.74255319148936172</v>
-      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
@@ -3123,7 +2405,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I16" s="21">
@@ -3133,7 +2415,7 @@
         <v>29</v>
       </c>
       <c r="K16" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.52727272727272723</v>
       </c>
       <c r="L16" s="21">
@@ -3150,7 +2432,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="Q16" s="23">
@@ -3158,7 +2440,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="21" t="s">
         <v>25</v>
       </c>
@@ -3183,7 +2465,7 @@
         <v>0.8</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="I17" s="21">
@@ -3193,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="L17" s="21">
@@ -3210,30 +2492,30 @@
         <v>1</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="S17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="T17" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="U17" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="V17" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="W17" s="28" t="s">
-        <v>49</v>
+      <c r="T17" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="W17" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>25</v>
       </c>
@@ -3250,15 +2532,15 @@
         <v>10</v>
       </c>
       <c r="F18" s="22">
-        <f t="shared" ref="F18:G37" si="14">D18/C18</f>
+        <f t="shared" ref="F18:G37" si="6">D18/C18</f>
         <v>1</v>
       </c>
       <c r="G18" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="I18" s="21">
@@ -3268,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="L18" s="21">
@@ -3285,30 +2567,30 @@
         <v>1</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
-      <c r="S18" s="29" t="s">
+      <c r="S18" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T18" s="26">
         <v>17.613071999999999</v>
       </c>
-      <c r="U18" s="27">
+      <c r="U18" s="26">
         <v>24.095817</v>
       </c>
-      <c r="V18" s="27">
+      <c r="V18" s="26">
         <v>14.968534</v>
       </c>
-      <c r="W18" s="27">
+      <c r="W18" s="26">
         <v>56.677</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
         <v>25</v>
       </c>
@@ -3325,15 +2607,15 @@
         <v>16</v>
       </c>
       <c r="F19" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G19" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="I19" s="21">
@@ -3343,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.12903225806451613</v>
       </c>
       <c r="L19" s="21">
@@ -3360,30 +2642,30 @@
         <v>1.0909090909090908</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.90909090909090906</v>
       </c>
-      <c r="S19" s="30" t="s">
+      <c r="S19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="26">
         <v>42.683818000000002</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="26">
         <v>19.677598</v>
       </c>
-      <c r="V19" s="27">
+      <c r="V19" s="26">
         <v>41.952627</v>
       </c>
-      <c r="W19" s="27">
+      <c r="W19" s="26">
         <v>104.31399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="21" t="s">
         <v>24</v>
       </c>
@@ -3400,15 +2682,15 @@
         <v>1</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G20" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="H20" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I20" s="21">
@@ -3418,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="L20" s="21">
@@ -3435,30 +2717,30 @@
         <v>1</v>
       </c>
       <c r="P20" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q20" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="30" t="s">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="T20" s="27">
+      <c r="T20" s="26">
         <v>22.643006</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="26">
         <v>32.300001999999999</v>
       </c>
-      <c r="V20" s="27">
+      <c r="V20" s="26">
         <v>27.674430999999998</v>
       </c>
-      <c r="W20" s="27">
+      <c r="W20" s="26">
         <v>82.617000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
         <v>24</v>
       </c>
@@ -3475,15 +2757,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G21" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I21" s="21">
@@ -3493,7 +2775,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
       <c r="L21" s="21">
@@ -3510,30 +2792,30 @@
         <v>1</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S21" s="30" t="s">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S21" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="27">
+      <c r="T21" s="26">
         <v>26.873348</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="26">
         <v>21.691517999999999</v>
       </c>
-      <c r="V21" s="27">
+      <c r="V21" s="26">
         <v>39.407944000000001</v>
       </c>
-      <c r="W21" s="27">
+      <c r="W21" s="26">
         <v>87.972999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="21" t="s">
         <v>24</v>
       </c>
@@ -3550,15 +2832,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G22" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="I22" s="21">
@@ -3568,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
       <c r="L22" s="21">
@@ -3585,30 +2867,30 @@
         <v>1</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S22" s="30" t="s">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S22" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="26">
         <v>128.02635699999999</v>
       </c>
-      <c r="U22" s="27">
+      <c r="U22" s="26">
         <v>98.680954999999997</v>
       </c>
-      <c r="V22" s="27">
+      <c r="V22" s="26">
         <v>78.897277000000003</v>
       </c>
-      <c r="W22" s="27">
+      <c r="W22" s="26">
         <v>305.60500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -3625,15 +2907,15 @@
         <v>3</v>
       </c>
       <c r="F23" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G23" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H23" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I23" s="21">
@@ -3643,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L23" s="21">
@@ -3660,30 +2942,30 @@
         <v>1</v>
       </c>
       <c r="P23" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="30" t="s">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="26">
         <v>79.751966999999993</v>
       </c>
-      <c r="U23" s="27">
+      <c r="U23" s="26">
         <v>84.441035999999997</v>
       </c>
-      <c r="V23" s="27">
+      <c r="V23" s="26">
         <v>100.27405299999999</v>
       </c>
-      <c r="W23" s="27">
+      <c r="W23" s="26">
         <v>264.46699999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
@@ -3700,15 +2982,15 @@
         <v>3</v>
       </c>
       <c r="F24" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G24" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I24" s="21">
@@ -3718,7 +3000,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="L24" s="21">
@@ -3735,30 +3017,30 @@
         <v>1</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="S24" s="30" t="s">
+      <c r="S24" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="T24" s="27">
+      <c r="T24" s="26">
         <v>31.325672000000001</v>
       </c>
-      <c r="U24" s="27">
+      <c r="U24" s="26">
         <v>19.270291</v>
       </c>
-      <c r="V24" s="27">
+      <c r="V24" s="26">
         <v>25.189578999999998</v>
       </c>
-      <c r="W24" s="27">
+      <c r="W24" s="26">
         <v>75.786000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
@@ -3775,15 +3057,15 @@
         <v>3</v>
       </c>
       <c r="F25" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G25" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H25" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I25" s="21">
@@ -3793,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L25" s="21">
@@ -3810,30 +3092,30 @@
         <v>1</v>
       </c>
       <c r="P25" s="23">
-        <f t="shared" ref="P25:P37" si="15">N25/M25</f>
+        <f t="shared" ref="P25:P37" si="7">N25/M25</f>
         <v>1</v>
       </c>
       <c r="Q25" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S25" s="30" t="s">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S25" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="T25" s="27">
+      <c r="T25" s="26">
         <v>19.054663000000001</v>
       </c>
-      <c r="U25" s="27">
+      <c r="U25" s="26">
         <v>19.867982000000001</v>
       </c>
-      <c r="V25" s="27">
+      <c r="V25" s="26">
         <v>21.092583999999999</v>
       </c>
-      <c r="W25" s="27">
+      <c r="W25" s="26">
         <v>60.015000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
         <v>22</v>
       </c>
@@ -3850,15 +3132,15 @@
         <v>5</v>
       </c>
       <c r="F26" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G26" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H26" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I26" s="21">
@@ -3885,30 +3167,30 @@
         <v>1</v>
       </c>
       <c r="P26" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="Q26" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="S26" s="30" t="s">
+      <c r="S26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="26">
         <v>32.380443</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="26">
         <v>33.675297999999998</v>
       </c>
-      <c r="V26" s="27">
+      <c r="V26" s="26">
         <v>35.771171000000002</v>
       </c>
-      <c r="W26" s="27">
+      <c r="W26" s="26">
         <v>101.827</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>22</v>
       </c>
@@ -3925,15 +3207,15 @@
         <v>5</v>
       </c>
       <c r="F27" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G27" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H27" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I27" s="21">
@@ -3960,30 +3242,30 @@
         <v>1</v>
       </c>
       <c r="P27" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
       <c r="Q27" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="S27" s="30" t="s">
+      <c r="S27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="T27" s="27">
+      <c r="T27" s="26">
         <v>40.553198999999999</v>
       </c>
-      <c r="U27" s="27">
+      <c r="U27" s="26">
         <v>44.366562999999999</v>
       </c>
-      <c r="V27" s="27">
+      <c r="V27" s="26">
         <v>35.986373999999998</v>
       </c>
-      <c r="W27" s="27">
+      <c r="W27" s="26">
         <v>120.90600000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
         <v>22</v>
       </c>
@@ -4000,15 +3282,15 @@
         <v>4</v>
       </c>
       <c r="F28" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G28" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
       <c r="H28" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
       <c r="I28" s="21">
@@ -4018,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>6.25E-2</v>
       </c>
       <c r="L28" s="21">
@@ -4035,30 +3317,30 @@
         <v>1</v>
       </c>
       <c r="P28" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="Q28" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="S28" s="30" t="s">
+      <c r="S28" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="T28" s="27">
+      <c r="T28" s="26">
         <v>50.562911999999997</v>
       </c>
-      <c r="U28" s="27">
+      <c r="U28" s="26">
         <v>52.016469999999998</v>
       </c>
-      <c r="V28" s="27">
+      <c r="V28" s="26">
         <v>41.221283</v>
       </c>
-      <c r="W28" s="27">
+      <c r="W28" s="26">
         <v>143.80099999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="21" t="s">
         <v>21</v>
       </c>
@@ -4075,15 +3357,15 @@
         <v>5</v>
       </c>
       <c r="F29" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G29" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H29" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I29" s="21">
@@ -4093,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L29" s="21">
@@ -4110,30 +3392,30 @@
         <v>1</v>
       </c>
       <c r="P29" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q29" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="31" t="s">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="T29" s="27">
+      <c r="T29" s="26">
         <v>72.941241000000005</v>
       </c>
-      <c r="U29" s="27">
+      <c r="U29" s="26">
         <v>41.416505000000001</v>
       </c>
-      <c r="V29" s="27">
+      <c r="V29" s="26">
         <v>39.053736999999998</v>
       </c>
-      <c r="W29" s="27">
+      <c r="W29" s="26">
         <v>153.411</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
         <v>21</v>
       </c>
@@ -4150,15 +3432,15 @@
         <v>2</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G30" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H30" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I30" s="21">
@@ -4168,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L30" s="21">
@@ -4185,22 +3467,22 @@
         <v>1</v>
       </c>
       <c r="P30" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q30" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="V30" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="W30" s="33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V30" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" s="32">
         <f>SUM(W18:W29)/60</f>
         <v>25.956650000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
         <v>21</v>
       </c>
@@ -4217,15 +3499,15 @@
         <v>3</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G31" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H31" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I31" s="21">
@@ -4235,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31" s="21">
@@ -4252,15 +3534,15 @@
         <v>1</v>
       </c>
       <c r="P31" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q31" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
         <v>20</v>
       </c>
@@ -4277,15 +3559,15 @@
         <v>1</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G32" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="H32" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="I32" s="21">
@@ -4295,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="K32" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="L32" s="21">
@@ -4312,15 +3594,15 @@
         <v>1</v>
       </c>
       <c r="P32" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.875</v>
       </c>
       <c r="Q32" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="21" t="s">
         <v>20</v>
       </c>
@@ -4337,15 +3619,15 @@
         <v>7</v>
       </c>
       <c r="F33" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G33" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
       <c r="H33" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="I33" s="21">
@@ -4355,7 +3637,7 @@
         <v>3</v>
       </c>
       <c r="K33" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="L33" s="21">
@@ -4372,15 +3654,87 @@
         <v>1</v>
       </c>
       <c r="P33" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="Q33" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.9285714285714286</v>
       </c>
+      <c r="S33" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="U33" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="V33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="W33" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="X33" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB33" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC33" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD33" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE33" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF33" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG33" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH33" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI33" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK33" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM33" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP33" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="21" t="s">
         <v>20</v>
       </c>
@@ -4397,15 +3751,15 @@
         <v>10</v>
       </c>
       <c r="F34" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G34" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H34" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I34" s="21">
@@ -4415,7 +3769,7 @@
         <v>4</v>
       </c>
       <c r="K34" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="L34" s="21">
@@ -4432,15 +3786,95 @@
         <v>1.1176470588235294</v>
       </c>
       <c r="P34" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.78947368421052633</v>
       </c>
       <c r="Q34" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.88235294117647056</v>
       </c>
+      <c r="S34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T34" s="11">
+        <v>14</v>
+      </c>
+      <c r="U34" s="33">
+        <f>_xlfn.STDEV.S(C2:C4)</f>
+        <v>0.57735026918962784</v>
+      </c>
+      <c r="V34" s="11">
+        <v>14</v>
+      </c>
+      <c r="W34" s="33">
+        <f>_xlfn.STDEV.S(D2:D4)</f>
+        <v>0.57735026918962784</v>
+      </c>
+      <c r="X34" s="11">
+        <v>14</v>
+      </c>
+      <c r="Y34" s="33">
+        <f>_xlfn.STDEV.S(E2:E4)</f>
+        <v>0.57735026918962784</v>
+      </c>
+      <c r="Z34" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="11">
+        <v>64</v>
+      </c>
+      <c r="AD34" s="33">
+        <f>_xlfn.STDEV.S(I2:I4)</f>
+        <v>3.2145502536643242</v>
+      </c>
+      <c r="AE34" s="11">
+        <v>3</v>
+      </c>
+      <c r="AF34" s="33">
+        <f>_xlfn.STDEV.S(J2:J4)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>4.6875E-2</v>
+      </c>
+      <c r="AH34" s="11">
+        <v>32</v>
+      </c>
+      <c r="AI34" s="36">
+        <f>_xlfn.STDEV.S(L2:L4)</f>
+        <v>1.1547005383792517</v>
+      </c>
+      <c r="AJ34" s="11">
+        <v>32</v>
+      </c>
+      <c r="AK34" s="36">
+        <f>_xlfn.STDEV.S(M2:M4)</f>
+        <v>1.1547005383792517</v>
+      </c>
+      <c r="AL34" s="11">
+        <v>29</v>
+      </c>
+      <c r="AM34" s="33">
+        <f>_xlfn.STDEV.S(N2:N4)</f>
+        <v>2.5166114784235849</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>0.90625</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>0.90625</v>
+      </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="21" t="s">
         <v>19</v>
       </c>
@@ -4457,15 +3891,15 @@
         <v>10</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G35" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="H35" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="I35" s="21">
@@ -4475,7 +3909,7 @@
         <v>3</v>
       </c>
       <c r="K35" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>9.6774193548387094E-2</v>
       </c>
       <c r="L35" s="21">
@@ -4492,15 +3926,95 @@
         <v>1</v>
       </c>
       <c r="P35" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="Q35" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
+      <c r="S35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="T35" s="8">
+        <v>23</v>
+      </c>
+      <c r="U35" s="34">
+        <f>_xlfn.STDEV.S(C5:C7)</f>
+        <v>1.5275252316519452</v>
+      </c>
+      <c r="V35" s="8">
+        <v>23</v>
+      </c>
+      <c r="W35" s="34">
+        <f>_xlfn.STDEV.S(D5:D7)</f>
+        <v>1.5275252316519452</v>
+      </c>
+      <c r="X35" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y35" s="39">
+        <f>_xlfn.STDEV.S(E5:E7)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="9">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AB35" s="9">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="AC35" s="8">
+        <v>77</v>
+      </c>
+      <c r="AD35" s="34">
+        <f>_xlfn.STDEV.S(I5:I7)</f>
+        <v>10.26320287889377</v>
+      </c>
+      <c r="AE35" s="8">
+        <v>5</v>
+      </c>
+      <c r="AF35" s="34">
+        <f>_xlfn.STDEV.S(J5:J7)</f>
+        <v>5.2915026221291814</v>
+      </c>
+      <c r="AG35" s="9">
+        <v>6.4935064935064929E-2</v>
+      </c>
+      <c r="AH35" s="8">
+        <v>32</v>
+      </c>
+      <c r="AI35" s="37">
+        <f>_xlfn.STDEV.S(L5:L7)</f>
+        <v>4</v>
+      </c>
+      <c r="AJ35" s="8">
+        <v>41</v>
+      </c>
+      <c r="AK35" s="37">
+        <f>_xlfn.STDEV.S(M5:M7)</f>
+        <v>3.0550504633038904</v>
+      </c>
+      <c r="AL35" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM35" s="34">
+        <f>_xlfn.STDEV.S(N5:N7)</f>
+        <v>3</v>
+      </c>
+      <c r="AN35" s="9">
+        <v>1.28125</v>
+      </c>
+      <c r="AO35" s="9">
+        <v>0.65853658536585369</v>
+      </c>
+      <c r="AP35" s="9">
+        <v>0.84375</v>
+      </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="21" t="s">
         <v>19</v>
       </c>
@@ -4517,15 +4031,15 @@
         <v>8</v>
       </c>
       <c r="F36" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G36" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="H36" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="I36" s="21">
@@ -4535,7 +4049,7 @@
         <v>3</v>
       </c>
       <c r="K36" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
       <c r="L36" s="21">
@@ -4552,15 +4066,95 @@
         <v>1</v>
       </c>
       <c r="P36" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.8125</v>
       </c>
       <c r="Q36" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.8125</v>
       </c>
+      <c r="S36" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T36" s="8">
+        <v>17</v>
+      </c>
+      <c r="U36" s="34">
+        <f>_xlfn.STDEV.S(C8:C10)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="V36" s="8">
+        <v>17</v>
+      </c>
+      <c r="W36" s="34">
+        <f>_xlfn.STDEV.S(D8:D10)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="X36" s="8">
+        <v>14</v>
+      </c>
+      <c r="Y36" s="39">
+        <f>_xlfn.STDEV.S(E8:E10)</f>
+        <v>0.57735026918962784</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="9">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AB36" s="9">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AC36" s="8">
+        <v>67</v>
+      </c>
+      <c r="AD36" s="34">
+        <f>_xlfn.STDEV.S(I8:I10)</f>
+        <v>5.7735026918962609</v>
+      </c>
+      <c r="AE36" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF36" s="34">
+        <f>_xlfn.STDEV.S(J8:J10)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="AG36" s="9">
+        <v>5.9701492537313432E-2</v>
+      </c>
+      <c r="AH36" s="8">
+        <v>34</v>
+      </c>
+      <c r="AI36" s="37">
+        <f>_xlfn.STDEV.S(L8:L10)</f>
+        <v>2.3094010767585051</v>
+      </c>
+      <c r="AJ36" s="8">
+        <v>34</v>
+      </c>
+      <c r="AK36" s="37">
+        <f>_xlfn.STDEV.S(M8:M10)</f>
+        <v>2.3094010767585051</v>
+      </c>
+      <c r="AL36" s="8">
+        <v>31</v>
+      </c>
+      <c r="AM36" s="34">
+        <f>_xlfn.STDEV.S(N8:N10)</f>
+        <v>2.3094010767585051</v>
+      </c>
+      <c r="AN36" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="9">
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="AP36" s="9">
+        <v>0.91176470588235292</v>
+      </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="21" t="s">
         <v>19</v>
       </c>
@@ -4577,15 +4171,15 @@
         <v>6</v>
       </c>
       <c r="F37" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G37" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="H37" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="I37" s="21">
@@ -4595,7 +4189,7 @@
         <v>6</v>
       </c>
       <c r="K37" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="L37" s="21">
@@ -4612,12 +4206,813 @@
         <v>1</v>
       </c>
       <c r="P37" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="Q37" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0.5714285714285714</v>
+      </c>
+      <c r="S37" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="8">
+        <v>15</v>
+      </c>
+      <c r="U37" s="34">
+        <f>_xlfn.STDEV.S(C11:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="V37" s="8">
+        <v>15</v>
+      </c>
+      <c r="W37" s="34">
+        <f>_xlfn.STDEV.S(D11:D13)</f>
+        <v>1</v>
+      </c>
+      <c r="X37" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y37" s="39">
+        <f>_xlfn.STDEV.S(E11:E13)</f>
+        <v>1</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="8">
+        <v>64</v>
+      </c>
+      <c r="AD37" s="34">
+        <f>_xlfn.STDEV.S(I11:I13)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="AE37" s="8">
+        <v>4</v>
+      </c>
+      <c r="AF37" s="34">
+        <f>_xlfn.STDEV.S(J11:J13)</f>
+        <v>1.5275252316519468</v>
+      </c>
+      <c r="AG37" s="9">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AH37" s="8">
+        <v>29</v>
+      </c>
+      <c r="AI37" s="37">
+        <f>_xlfn.STDEV.S(L11:L13)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AJ37" s="8">
+        <v>31</v>
+      </c>
+      <c r="AK37" s="37">
+        <f>_xlfn.STDEV.S(M11:M13)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="AL37" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM37" s="34">
+        <f>_xlfn.STDEV.S(N11:N13)</f>
+        <v>1</v>
+      </c>
+      <c r="AN37" s="9">
+        <v>1.0689655172413792</v>
+      </c>
+      <c r="AO37" s="9">
+        <v>0.87096774193548387</v>
+      </c>
+      <c r="AP37" s="9">
+        <v>0.93103448275862066</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38" s="8">
+        <v>94</v>
+      </c>
+      <c r="U38" s="34">
+        <f>_xlfn.STDEV.S(C14:C16)</f>
+        <v>1.5275252316519465</v>
+      </c>
+      <c r="V38" s="8">
+        <v>94</v>
+      </c>
+      <c r="W38" s="34">
+        <f>_xlfn.STDEV.S(D14:D16)</f>
+        <v>1.5275252316519465</v>
+      </c>
+      <c r="X38" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y38" s="39">
+        <f>_xlfn.STDEV.S(E14:E16)</f>
+        <v>2.5166114784235831</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="9">
+        <v>0.11702127659574468</v>
+      </c>
+      <c r="AB38" s="9">
+        <v>0.11702127659574468</v>
+      </c>
+      <c r="AC38" s="8">
+        <v>171</v>
+      </c>
+      <c r="AD38" s="34">
+        <f>_xlfn.STDEV.S(I14:I16)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="AE38" s="8">
+        <v>83</v>
+      </c>
+      <c r="AF38" s="34">
+        <f>_xlfn.STDEV.S(J14:J16)</f>
+        <v>2.3094010767585034</v>
+      </c>
+      <c r="AG38" s="9">
+        <v>0.4853801169590643</v>
+      </c>
+      <c r="AH38" s="8">
+        <v>108</v>
+      </c>
+      <c r="AI38" s="37">
+        <f>_xlfn.STDEV.S(L14:L16)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="8">
+        <v>108</v>
+      </c>
+      <c r="AK38" s="37">
+        <f>_xlfn.STDEV.S(M14:M16)</f>
+        <v>1</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>26</v>
+      </c>
+      <c r="AM38" s="34">
+        <f>_xlfn.STDEV.S(N14:N16)</f>
+        <v>2.5166114784235822</v>
+      </c>
+      <c r="AN38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="9">
+        <v>0.24074074074074073</v>
+      </c>
+      <c r="AP38" s="9">
+        <v>0.24074074074074073</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="8">
+        <v>39</v>
+      </c>
+      <c r="U39" s="34">
+        <f>_xlfn.STDEV.S(C17:C19)</f>
+        <v>4.358898943540674</v>
+      </c>
+      <c r="V39" s="8">
+        <v>39</v>
+      </c>
+      <c r="W39" s="34">
+        <f>_xlfn.STDEV.S(D17:D19)</f>
+        <v>4.358898943540674</v>
+      </c>
+      <c r="X39" s="8">
+        <v>34</v>
+      </c>
+      <c r="Y39" s="39">
+        <f>_xlfn.STDEV.S(E17:E19)</f>
+        <v>4.163331998932267</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>0.87179487179487181</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>0.87179487179487181</v>
+      </c>
+      <c r="AC39" s="8">
+        <v>95</v>
+      </c>
+      <c r="AD39" s="34">
+        <f>_xlfn.STDEV.S(I17:I19)</f>
+        <v>1.1547005383792515</v>
+      </c>
+      <c r="AE39" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF39" s="34">
+        <f>_xlfn.STDEV.S(J17:J19)</f>
+        <v>1.5275252316519468</v>
+      </c>
+      <c r="AG39" s="9">
+        <v>7.3684210526315783E-2</v>
+      </c>
+      <c r="AH39" s="8">
+        <v>56</v>
+      </c>
+      <c r="AI39" s="37">
+        <f>_xlfn.STDEV.S(L17:L19)</f>
+        <v>3.5118845842842519</v>
+      </c>
+      <c r="AJ39" s="8">
+        <v>58</v>
+      </c>
+      <c r="AK39" s="37">
+        <f>_xlfn.STDEV.S(M17:M19)</f>
+        <v>4.5092497528228987</v>
+      </c>
+      <c r="AL39" s="8">
+        <v>51</v>
+      </c>
+      <c r="AM39" s="34">
+        <f>_xlfn.STDEV.S(N17:N19)</f>
+        <v>3</v>
+      </c>
+      <c r="AN39" s="9">
+        <v>1.0357142857142858</v>
+      </c>
+      <c r="AO39" s="9">
+        <v>0.87931034482758619</v>
+      </c>
+      <c r="AP39" s="9">
+        <v>0.9107142857142857</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S40" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="T40" s="8">
+        <v>6</v>
+      </c>
+      <c r="U40" s="34">
+        <f>_xlfn.STDEV.S(C20:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="8">
+        <v>6</v>
+      </c>
+      <c r="W40" s="34">
+        <f>_xlfn.STDEV.S(D20:D22)</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="39">
+        <f>_xlfn.STDEV.S(E20:E22)</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="AC40" s="8">
+        <v>49</v>
+      </c>
+      <c r="AD40" s="34">
+        <f>_xlfn.STDEV.S(I20:I22)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="AE40" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF40" s="34">
+        <f>_xlfn.STDEV.S(J20:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="9">
+        <v>6.1224489795918366E-2</v>
+      </c>
+      <c r="AH40" s="8">
+        <v>21</v>
+      </c>
+      <c r="AI40" s="37">
+        <f>_xlfn.STDEV.S(L20:L22)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="8">
+        <v>21</v>
+      </c>
+      <c r="AK40" s="37">
+        <f>_xlfn.STDEV.S(M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="AL40" s="8">
+        <v>21</v>
+      </c>
+      <c r="AM40" s="34">
+        <f>_xlfn.STDEV.S(N20:N22)</f>
+        <v>0</v>
+      </c>
+      <c r="AN40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S41" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="T41" s="8">
+        <v>9</v>
+      </c>
+      <c r="U41" s="34">
+        <f>_xlfn.STDEV.S(C23:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="8">
+        <v>9</v>
+      </c>
+      <c r="W41" s="34">
+        <f>_xlfn.STDEV.S(D23:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="X41" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y41" s="39">
+        <f>_xlfn.STDEV.S(E23:E25)</f>
+        <v>0</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="8">
+        <v>48</v>
+      </c>
+      <c r="AD41" s="34">
+        <f>_xlfn.STDEV.S(I23:I25)</f>
+        <v>2</v>
+      </c>
+      <c r="AE41" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="34">
+        <f>_xlfn.STDEV.S(J23:J25)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="AG41" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AH41" s="8">
+        <v>21</v>
+      </c>
+      <c r="AI41" s="37">
+        <f>_xlfn.STDEV.S(L23:L25)</f>
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="8">
+        <v>21</v>
+      </c>
+      <c r="AK41" s="37">
+        <f>_xlfn.STDEV.S(M23:M25)</f>
+        <v>2</v>
+      </c>
+      <c r="AL41" s="8">
+        <v>20</v>
+      </c>
+      <c r="AM41" s="34">
+        <f>_xlfn.STDEV.S(N23:N25)</f>
+        <v>1.5275252316519452</v>
+      </c>
+      <c r="AN41" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="9">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="AP41" s="9">
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S42" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="T42" s="8">
+        <v>17</v>
+      </c>
+      <c r="U42" s="34">
+        <f>_xlfn.STDEV.S(C26:C28)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="V42" s="8">
+        <v>17</v>
+      </c>
+      <c r="W42" s="34">
+        <f>_xlfn.STDEV.S(D26:D28)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="X42" s="8">
+        <v>14</v>
+      </c>
+      <c r="Y42" s="39">
+        <f>_xlfn.STDEV.S(E26:E28)</f>
+        <v>0.57735026918962784</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AB42" s="9">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AC42" s="8">
+        <v>56</v>
+      </c>
+      <c r="AD42" s="34">
+        <f>_xlfn.STDEV.S(I26:I28)</f>
+        <v>2.3094010767585114</v>
+      </c>
+      <c r="AE42" s="8">
+        <v>3</v>
+      </c>
+      <c r="AF42" s="34">
+        <f>_xlfn.STDEV.S(J26:J28)</f>
+        <v>0</v>
+      </c>
+      <c r="AG42" s="9">
+        <v>5.3571428571428568E-2</v>
+      </c>
+      <c r="AH42" s="8">
+        <v>26</v>
+      </c>
+      <c r="AI42" s="37">
+        <f>_xlfn.STDEV.S(L26:L28)</f>
+        <v>1.5275252316519452</v>
+      </c>
+      <c r="AJ42" s="8">
+        <v>26</v>
+      </c>
+      <c r="AK42" s="37">
+        <f>_xlfn.STDEV.S(M26:M28)</f>
+        <v>1.5275252316519452</v>
+      </c>
+      <c r="AL42" s="8">
+        <v>23</v>
+      </c>
+      <c r="AM42" s="34">
+        <f>_xlfn.STDEV.S(N26:N28)</f>
+        <v>1.5275252316519452</v>
+      </c>
+      <c r="AN42" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="9">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="AP42" s="9">
+        <v>0.88461538461538458</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="T43" s="8">
+        <v>10</v>
+      </c>
+      <c r="U43" s="34">
+        <f>_xlfn.STDEV.S(C29:C31)</f>
+        <v>1.5275252316519463</v>
+      </c>
+      <c r="V43" s="8">
+        <v>10</v>
+      </c>
+      <c r="W43" s="34">
+        <f>_xlfn.STDEV.S(D29:D31)</f>
+        <v>1.5275252316519463</v>
+      </c>
+      <c r="X43" s="8">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="39">
+        <f>_xlfn.STDEV.S(E29:E31)</f>
+        <v>1.5275252316519463</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="8">
+        <v>42</v>
+      </c>
+      <c r="AD43" s="34">
+        <f>_xlfn.STDEV.S(I29:I31)</f>
+        <v>3.6055512754639891</v>
+      </c>
+      <c r="AE43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="34">
+        <f>_xlfn.STDEV.S(J29:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="8">
+        <v>19</v>
+      </c>
+      <c r="AI43" s="37">
+        <f>_xlfn.STDEV.S(L29:L31)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="AJ43" s="8">
+        <v>19</v>
+      </c>
+      <c r="AK43" s="37">
+        <f>_xlfn.STDEV.S(M29:M31)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="AL43" s="8">
+        <v>19</v>
+      </c>
+      <c r="AM43" s="34">
+        <f>_xlfn.STDEV.S(N29:N31)</f>
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="AN43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="9">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="8">
+        <v>35</v>
+      </c>
+      <c r="U44" s="34">
+        <f>_xlfn.STDEV.S(C32:C34)</f>
+        <v>1.5275252316519499</v>
+      </c>
+      <c r="V44" s="8">
+        <v>35</v>
+      </c>
+      <c r="W44" s="34">
+        <f>_xlfn.STDEV.S(D32:D34)</f>
+        <v>1.5275252316519499</v>
+      </c>
+      <c r="X44" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y44" s="39">
+        <f>_xlfn.STDEV.S(E32:E34)</f>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="9">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="AB44" s="9">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="AC44" s="8">
+        <v>95</v>
+      </c>
+      <c r="AD44" s="34">
+        <f>_xlfn.STDEV.S(I32:I34)</f>
+        <v>6.6583281184793872</v>
+      </c>
+      <c r="AE44" s="8">
+        <v>9</v>
+      </c>
+      <c r="AF44" s="34">
+        <f>_xlfn.STDEV.S(J32:J34)</f>
+        <v>1</v>
+      </c>
+      <c r="AG44" s="9">
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="AH44" s="8">
+        <v>47</v>
+      </c>
+      <c r="AI44" s="37">
+        <f>_xlfn.STDEV.S(L32:L34)</f>
+        <v>1.5275252316519468</v>
+      </c>
+      <c r="AJ44" s="8">
+        <v>49</v>
+      </c>
+      <c r="AK44" s="37">
+        <f>_xlfn.STDEV.S(M32:M34)</f>
+        <v>2.5166114784235796</v>
+      </c>
+      <c r="AL44" s="8">
+        <v>42</v>
+      </c>
+      <c r="AM44" s="34">
+        <f>_xlfn.STDEV.S(N32:N34)</f>
+        <v>1</v>
+      </c>
+      <c r="AN44" s="9">
+        <v>1.0425531914893618</v>
+      </c>
+      <c r="AO44" s="9">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="AP44" s="9">
+        <v>0.8936170212765957</v>
+      </c>
+    </row>
+    <row r="45" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="S45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="T45" s="16">
+        <v>34</v>
+      </c>
+      <c r="U45" s="35">
+        <f>_xlfn.STDEV.S(C35:C37)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="V45" s="16">
+        <v>34</v>
+      </c>
+      <c r="W45" s="35">
+        <f>_xlfn.STDEV.S(D35:D37)</f>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="X45" s="16">
+        <v>24</v>
+      </c>
+      <c r="Y45" s="40">
+        <f>_xlfn.STDEV.S(E35:E37)</f>
+        <v>2</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="17">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AB45" s="17">
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="AC45" s="16">
+        <v>77</v>
+      </c>
+      <c r="AD45" s="35">
+        <f>_xlfn.STDEV.S(I35:I37)</f>
+        <v>5.0332229568471698</v>
+      </c>
+      <c r="AE45" s="16">
+        <v>12</v>
+      </c>
+      <c r="AF45" s="35">
+        <f>_xlfn.STDEV.S(J35:J37)</f>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="AG45" s="17">
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="AH45" s="16">
+        <v>45</v>
+      </c>
+      <c r="AI45" s="38">
+        <f>_xlfn.STDEV.S(L35:L37)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="16">
+        <v>45</v>
+      </c>
+      <c r="AK45" s="38">
+        <f>_xlfn.STDEV.S(M35:M37)</f>
+        <v>1</v>
+      </c>
+      <c r="AL45" s="16">
+        <v>33</v>
+      </c>
+      <c r="AM45" s="35">
+        <f>_xlfn.STDEV.S(N35:N37)</f>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="AN45" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="17">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="AP45" s="17">
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="S47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T47" s="8">
+        <v>313</v>
+      </c>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8">
+        <v>313</v>
+      </c>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8">
+        <v>187</v>
+      </c>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8">
+        <f>AVERAGE(Z34:Z45)</f>
+        <v>1</v>
+      </c>
+      <c r="AA47" s="9">
+        <f>AVERAGE(AA34:AA45)</f>
+        <v>0.77242387645064914</v>
+      </c>
+      <c r="AB47" s="9">
+        <f>AVERAGE(AB34:AB45)</f>
+        <v>0.77242387645064914</v>
+      </c>
+      <c r="AC47" s="25">
+        <v>905</v>
+      </c>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="25">
+        <v>134</v>
+      </c>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="9">
+        <f>AVERAGE(AG34:AG45)</f>
+        <v>9.8273844550654813E-2</v>
+      </c>
+      <c r="AH47" s="25">
+        <v>470</v>
+      </c>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="25">
+        <v>485</v>
+      </c>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="25">
+        <v>349</v>
+      </c>
+      <c r="AM47" s="8"/>
+      <c r="AN47" s="9">
+        <f>AVERAGE(AN34:AN45)</f>
+        <v>1.0357069162037522</v>
+      </c>
+      <c r="AO47" s="9">
+        <f>AVERAGE(AO34:AO45)</f>
+        <v>0.82458688718537865</v>
+      </c>
+      <c r="AP47" s="9">
+        <f>AVERAGE(AP34:AP45)</f>
+        <v>0.85068340889185545</v>
       </c>
     </row>
   </sheetData>
